--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1785.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1785.xlsx
@@ -351,16 +351,16 @@
         <v>0.8198408683025252</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1785.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1785.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8198408683025252</v>
+        <v>0.7083876132965088</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.350097894668579</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.137699127197266</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.277101755142212</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>0.7334194183349609</v>
       </c>
     </row>
   </sheetData>
